--- a/docs/gitdoc.xlsx
+++ b/docs/gitdoc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>…or create a new repository on the command line</t>
   </si>
@@ -79,13 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>githubにレポジトリを作成する</t>
-    <rPh sb="13" eb="15">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ローカル環境でローカルレポジトリを作成する</t>
     <rPh sb="4" eb="6">
       <t>カンキョウ</t>
@@ -96,56 +89,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/Users/ユーザー名」以下にディレクトリを作成しています。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディレクトリ名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>takao2/github</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディレクトリを作成したら、「git init」コマンドでローカルリポジトリを作成します。</t>
-  </si>
-  <si>
-    <t>コマンドプロンプトを起動</t>
-    <rPh sb="10" eb="12">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディレクトリを移動する</t>
-    <rPh sb="7" eb="9">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下のように表示されたら成功です！</t>
-  </si>
-  <si>
-    <t>Githubにアップしたいファイルとディレクトリをコミットします。</t>
-  </si>
-  <si>
-    <t>git add .</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>git commit -m "first commit"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>まだgithubにはディレクトリは出来ていない</t>
     <rPh sb="17" eb="19">
       <t>デキ</t>
@@ -153,9 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リモートリポジトリを登録する</t>
-  </si>
-  <si>
     <t>Githubで作成したリポジトリを、リモートリポジトリとして登録します。</t>
   </si>
   <si>
@@ -172,23 +112,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ローカルのファイルアップロード</t>
-  </si>
-  <si>
     <t>git push -u origin main</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本語のファイル名は使用できない</t>
-    <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -199,6 +123,210 @@
     <t>対象</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>githubにリモートレポジトリを作成する</t>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pyCharmでプロジェクトをn225traderに設定し起動する</t>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メインメニュー VCS から Git リポジトリの作成します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VCS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>バージョン管理へインポート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gitリポジトリの作成</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示されたダイアログで、新しい Git リポジトリを作成するディレクトリを指定してOK⏎</t>
+  </si>
+  <si>
+    <t>以降はpyCharmのターミナルでを使用して設定する。</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pyChramでは設定出来なかったので！</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pyCharmのターミナルを選択する</t>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルリポジトリに開発環境のディレクトリ/ファイル全体を「add」コマンドで追加する。</t>
+    <rPh sb="10" eb="12">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commitする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createされたファイルが表示されればOK</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモートレポジトリを作成した時のメッセージに従ってリモートに同じ環境を作成する。</t>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/takezo1004/n225trader.git</t>
+  </si>
+  <si>
+    <t>git push -u origin main</t>
+  </si>
+  <si>
+    <t>以下の内容とほぼ同じメッセージでリモートリポジトリの構成は完了。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -207,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,6 +348,30 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -246,8 +398,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -271,20 +426,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>169722</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="15" name="図 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -297,8 +452,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1341120" y="3657600"/>
-          <a:ext cx="6248400" cy="1267002"/>
+          <a:off x="1310640" y="3550920"/>
+          <a:ext cx="5250180" cy="3116580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -309,20 +464,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>62941</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="17" name="図 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -335,8 +490,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="5006340"/>
-          <a:ext cx="6248400" cy="543001"/>
+          <a:off x="1455420" y="7063740"/>
+          <a:ext cx="4358640" cy="4160520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>312421</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="982981" y="11932921"/>
+          <a:ext cx="6240779" cy="815340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -349,56 +542,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>169594</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>131489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="5852160"/>
-          <a:ext cx="6233160" cy="352474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>662347</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114555</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="7" name="図 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -411,8 +566,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1318260" y="7063740"/>
-          <a:ext cx="9402487" cy="1829055"/>
+          <a:off x="1120140" y="13037820"/>
+          <a:ext cx="5951220" cy="261029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -424,19 +579,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>532786</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>153442</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPr id="20" name="図 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -449,8 +604,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1341120" y="9326880"/>
-          <a:ext cx="9250066" cy="7468642"/>
+          <a:off x="1150620" y="13647421"/>
+          <a:ext cx="5334000" cy="563880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -462,19 +617,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>557558</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>148646</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="21" name="図 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -487,8 +642,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1318260" y="17853660"/>
-          <a:ext cx="9297698" cy="400106"/>
+          <a:off x="731520" y="15171420"/>
+          <a:ext cx="7056120" cy="1127760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>373381</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213361</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1043941" y="16695420"/>
+          <a:ext cx="6324600" cy="2042160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,20 +956,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -818,13 +1014,19 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>9</v>
@@ -834,13 +1036,16 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N13" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -848,91 +1053,122 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
         <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C100" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
